--- a/story/Main Story and Others 主线剧情等/Operator Record 干员密录/story_ethan_1_1.xlsx
+++ b/story/Main Story and Others 主线剧情等/Operator Record 干员密录/story_ethan_1_1.xlsx
@@ -3600,7 +3600,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="호시구마"]  이쪽은 캄 경관, 오늘 널 도와주실 분이다.
+    <t xml:space="preserve">[name="호시구마"]  이쪽은 캄 경관, 오늘 널 도와줄 거야.
 </t>
   </si>
   <si>
@@ -4356,7 +4356,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="케빈"]  ……알겠습니다.
+    <t xml:space="preserve">[name="케빈"]  ……그래.
 </t>
   </si>
   <si>
@@ -4572,7 +4572,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="에단"]  무사합니다.
+    <t xml:space="preserve">[name="에단"]  알았어.
 </t>
   </si>
   <si>

--- a/story/Main Story and Others 主线剧情等/Operator Record 干员密录/story_ethan_1_1.xlsx
+++ b/story/Main Story and Others 主线剧情等/Operator Record 干员密录/story_ethan_1_1.xlsx
@@ -1840,7 +1840,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="イーサン"]  鉱石病の抑制剤だ。これが説明書だから、書いてある通りに飲めばいいんだ。
+    <t xml:space="preserve">[name="イーサン"]  鉱石病の抑制剤だ。これが説明書だから、書いてある通りに飲めばいいからよ。
 </t>
   </si>
   <si>
@@ -1916,7 +1916,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="ケヴィン"]  これは彼らが教えてくれた。俺にはアーツの才能がなくてな……せいぜいサイダーを冷やすのがようやくだ。
+    <t xml:space="preserve">[name="ケヴィン"]  これは彼らが教えてくれた。俺にはアーツの才能がなくてな……せいぜいサイダーを冷やすのがやっとだ。
 </t>
   </si>
   <si>
@@ -1940,7 +1940,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="ケヴィン"]  俺が生きてるのは、ただ運が良かったからだけだ。
+    <t xml:space="preserve">[name="ケヴィン"]  俺が生きてるのは、ただ運が良かったってだけだ。
 </t>
   </si>
   <si>
@@ -1956,7 +1956,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="通りすがりの女の子"]  カイのお兄さん！　サイダー一本ちょうだい！
+    <t xml:space="preserve">[name="通りすがりの女の子"]  ハイのお兄さん！　サイダー一本ちょうだい！
 </t>
   </si>
   <si>
@@ -2056,7 +2056,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="イーサン"]  市販の薬じゃねぇんだ。あんたが自分だけ飲めばいい、他の誰にも知られるなよ？
+    <t xml:space="preserve">[name="イーサン"]  市販の薬じゃねぇんだ。あんた一人で飲めばそれでいい、他の誰にも知られるなよ？
 </t>
   </si>
   <si>
@@ -2164,7 +2164,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">損壊したこの街で、人々は懸命に生きている。
+    <t xml:space="preserve">破壊を経たこの街で、人々は懸命に生きている。
 </t>
   </si>
   <si>
@@ -2252,7 +2252,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="ホシグマ"]  それと、その呼び方はやめてください。あなたとつるんだ覚えはありませんから。
+    <t xml:space="preserve">[name="ホシグマ"]  もうひとつ、その呼び方はやめてください。あなたとつるんだ覚えはありませんから。
 </t>
   </si>
   <si>
